--- a/DOC/基本設計/基本設計_emsm_雇用保険率テーブル.xlsx
+++ b/DOC/基本設計/基本設計_emsm_雇用保険率テーブル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6B91F-4A2A-4A43-88C1-5638FDFCF086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF53C3-1BDF-4305-BB19-F89C8FD83B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,10 +1140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1201,6 +1197,10 @@
   </si>
   <si>
     <t>=雇用保険料率‰+労災保険料率(全額事業主)‰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2122,192 +2122,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2315,6 +2129,369 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2350,183 +2527,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2907,16 +2907,16 @@
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="23.5">
       <c r="A15" s="5"/>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1">
@@ -2929,54 +2929,54 @@
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="46"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1">
@@ -2985,54 +2985,54 @@
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="13">
       <c r="A22" s="5"/>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="48"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1">
       <c r="A23" s="5"/>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="50"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="66"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1">
       <c r="A24" s="5"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1">
@@ -4030,34 +4030,34 @@
       <c r="BN1" s="24"/>
     </row>
     <row r="2" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
       <c r="AQ2" s="26"/>
       <c r="AR2" s="26"/>
       <c r="AS2" s="26"/>
@@ -4084,32 +4084,32 @@
       <c r="BN2" s="28"/>
     </row>
     <row r="3" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
       <c r="AQ3" s="26"/>
       <c r="AR3" s="26"/>
       <c r="AS3" s="26"/>
@@ -4136,166 +4136,166 @@
       <c r="BN3" s="29"/>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62" t="s">
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="70" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="68">
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="85">
         <v>44781</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="70" t="s">
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="68" t="s">
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="73"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="90"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="82" t="s">
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="82" t="s">
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="83"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="81"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="76"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="30"/>
@@ -4339,36 +4339,36 @@
       <c r="AM6" s="31"/>
       <c r="AN6" s="31"/>
       <c r="AO6" s="31"/>
-      <c r="AP6" s="91" t="s">
+      <c r="AP6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="93" t="s">
+      <c r="AQ6" s="80"/>
+      <c r="AR6" s="80"/>
+      <c r="AS6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="93"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="93"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="93" t="s">
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="81"/>
+      <c r="AV6" s="81"/>
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="81"/>
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="92"/>
-      <c r="BL6" s="92"/>
-      <c r="BM6" s="92"/>
+      <c r="BF6" s="80"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="80"/>
+      <c r="BJ6" s="80"/>
+      <c r="BK6" s="80"/>
+      <c r="BL6" s="80"/>
+      <c r="BM6" s="80"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
       <c r="A7" s="30"/>
@@ -4412,36 +4412,36 @@
       <c r="AM7" s="31"/>
       <c r="AN7" s="31"/>
       <c r="AO7" s="31"/>
-      <c r="AP7" s="85" t="s">
+      <c r="AP7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="94" t="s">
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="94" t="s">
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="96"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="84"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
       <c r="A8" s="30"/>
@@ -4485,36 +4485,36 @@
       <c r="AM8" s="31"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="31"/>
-      <c r="AP8" s="85" t="s">
+      <c r="AP8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="88" t="s">
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="89"/>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="88" t="s">
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="89"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="90"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
       <c r="A9" s="30"/>
@@ -4558,36 +4558,36 @@
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
       <c r="AO9" s="31"/>
-      <c r="AP9" s="85" t="s">
+      <c r="AP9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="88" t="s">
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="88" t="s">
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="BF9" s="89"/>
-      <c r="BG9" s="89"/>
-      <c r="BH9" s="89"/>
-      <c r="BI9" s="89"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="89"/>
-      <c r="BM9" s="90"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="74"/>
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
       <c r="A10" s="30"/>
@@ -4631,36 +4631,36 @@
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
       <c r="AO10" s="31"/>
-      <c r="AP10" s="85" t="s">
+      <c r="AP10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="88" t="s">
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="88" t="s">
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="90"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="75"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
       <c r="A11" s="30"/>
@@ -4704,36 +4704,36 @@
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
       <c r="AO11" s="31"/>
-      <c r="AP11" s="85" t="s">
+      <c r="AP11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="88" t="s">
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="88" t="s">
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="90"/>
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="74"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="74"/>
+      <c r="BK11" s="74"/>
+      <c r="BL11" s="74"/>
+      <c r="BM11" s="75"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
       <c r="A12" s="30"/>
@@ -4777,11 +4777,11 @@
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="31"/>
-      <c r="AP12" s="85" t="s">
+      <c r="AP12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="87"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="72"/>
       <c r="AS12" s="32" t="s">
         <v>50</v>
       </c>
@@ -4850,11 +4850,11 @@
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="31"/>
-      <c r="AP13" s="85" t="s">
+      <c r="AP13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="87"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="72"/>
       <c r="AS13" s="32" t="s">
         <v>52</v>
       </c>
@@ -4923,11 +4923,11 @@
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
       <c r="AO14" s="31"/>
-      <c r="AP14" s="85" t="s">
+      <c r="AP14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="87"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="72"/>
       <c r="AS14" s="32" t="s">
         <v>51</v>
       </c>
@@ -4996,36 +4996,36 @@
       <c r="AM15" s="31"/>
       <c r="AN15" s="31"/>
       <c r="AO15" s="31"/>
-      <c r="AP15" s="85" t="s">
+      <c r="AP15" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="88" t="s">
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="89"/>
-      <c r="BD15" s="90"/>
-      <c r="BE15" s="88" t="s">
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BF15" s="89"/>
-      <c r="BG15" s="89"/>
-      <c r="BH15" s="89"/>
-      <c r="BI15" s="89"/>
-      <c r="BJ15" s="89"/>
-      <c r="BK15" s="89"/>
-      <c r="BL15" s="89"/>
-      <c r="BM15" s="90"/>
+      <c r="BF15" s="74"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="74"/>
+      <c r="BL15" s="74"/>
+      <c r="BM15" s="75"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1">
       <c r="A16" s="30"/>
@@ -5069,36 +5069,36 @@
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
       <c r="AO16" s="31"/>
-      <c r="AP16" s="85" t="s">
+      <c r="AP16" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="88" t="s">
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="89"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="89"/>
-      <c r="AZ16" s="89"/>
-      <c r="BA16" s="89"/>
-      <c r="BB16" s="89"/>
-      <c r="BC16" s="89"/>
-      <c r="BD16" s="90"/>
-      <c r="BE16" s="88" t="s">
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="75"/>
+      <c r="BE16" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="BF16" s="89"/>
-      <c r="BG16" s="89"/>
-      <c r="BH16" s="89"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="89"/>
-      <c r="BK16" s="89"/>
-      <c r="BL16" s="89"/>
-      <c r="BM16" s="90"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="74"/>
+      <c r="BM16" s="75"/>
     </row>
     <row r="17" spans="1:65" ht="13.5" customHeight="1">
       <c r="A17" s="30"/>
@@ -5142,36 +5142,36 @@
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
       <c r="AO17" s="31"/>
-      <c r="AP17" s="85" t="s">
+      <c r="AP17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="88" t="s">
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="89"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="90"/>
-      <c r="BE17" s="88" t="s">
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="89"/>
-      <c r="BK17" s="89"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="90"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="74"/>
+      <c r="BK17" s="74"/>
+      <c r="BL17" s="74"/>
+      <c r="BM17" s="75"/>
     </row>
     <row r="18" spans="1:65" ht="13.5" customHeight="1">
       <c r="A18" s="30"/>
@@ -6981,37 +6981,11 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BN4"/>
@@ -7023,11 +6997,37 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7044,7 +7044,7 @@
   <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16:BL16"/>
+      <selection activeCell="S16" sqref="S16:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.9140625" defaultRowHeight="13.5" customHeight="1"/>
@@ -7253,35 +7253,35 @@
       <c r="BN1" s="24"/>
     </row>
     <row r="2" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
       <c r="AP2" s="26"/>
       <c r="AQ2" s="26"/>
       <c r="AR2" s="26"/>
@@ -7309,1470 +7309,1578 @@
       <c r="BN2" s="28"/>
     </row>
     <row r="3" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="100"/>
-      <c r="BD3" s="100"/>
-      <c r="BE3" s="100"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
-      <c r="BH3" s="100"/>
-      <c r="BI3" s="100"/>
-      <c r="BJ3" s="100"/>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="101"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="39"/>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="111" t="s">
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="113"/>
-      <c r="AW4" s="114" t="s">
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="171"/>
+      <c r="AJ4" s="171"/>
+      <c r="AK4" s="171"/>
+      <c r="AL4" s="171"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
+      <c r="AW4" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="68">
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="85">
         <v>44781</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="114" t="s">
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="115"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="117" t="s">
+      <c r="BG4" s="156"/>
+      <c r="BH4" s="157"/>
+      <c r="BI4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="73"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="90"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77" t="e">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="74" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="82" t="s">
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="82" t="s">
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="81"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="96"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
     </row>
     <row r="6" spans="1:66" ht="4.5" customHeight="1" thickTop="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="118"/>
-      <c r="BC6" s="118"/>
-      <c r="BD6" s="118"/>
-      <c r="BE6" s="118"/>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="118"/>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="118"/>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="118"/>
-      <c r="BL6" s="118"/>
-      <c r="BM6" s="118"/>
-      <c r="BN6" s="118"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="40"/>
+      <c r="BL6" s="40"/>
+      <c r="BM6" s="40"/>
+      <c r="BN6" s="40"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="119" t="s">
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="122" t="s">
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="123"/>
-      <c r="AU7" s="123"/>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
-      <c r="AX7" s="123"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="123"/>
-      <c r="BA7" s="123"/>
-      <c r="BB7" s="123"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="123"/>
-      <c r="BE7" s="123"/>
-      <c r="BF7" s="123"/>
-      <c r="BG7" s="123"/>
-      <c r="BH7" s="123"/>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="123"/>
-      <c r="BK7" s="123"/>
-      <c r="BL7" s="124"/>
-      <c r="BM7" s="122" t="s">
+      <c r="AP7" s="149"/>
+      <c r="AQ7" s="149"/>
+      <c r="AR7" s="149"/>
+      <c r="AS7" s="149"/>
+      <c r="AT7" s="149"/>
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="149"/>
+      <c r="AW7" s="149"/>
+      <c r="AX7" s="149"/>
+      <c r="AY7" s="149"/>
+      <c r="AZ7" s="149"/>
+      <c r="BA7" s="149"/>
+      <c r="BB7" s="149"/>
+      <c r="BC7" s="149"/>
+      <c r="BD7" s="149"/>
+      <c r="BE7" s="149"/>
+      <c r="BF7" s="149"/>
+      <c r="BG7" s="149"/>
+      <c r="BH7" s="149"/>
+      <c r="BI7" s="149"/>
+      <c r="BJ7" s="149"/>
+      <c r="BK7" s="149"/>
+      <c r="BL7" s="150"/>
+      <c r="BM7" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="BN7" s="124"/>
+      <c r="BN7" s="150"/>
     </row>
     <row r="8" spans="1:66" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="126" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="126" t="s">
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="129"/>
-      <c r="S8" s="126" t="s">
+      <c r="R8" s="136"/>
+      <c r="S8" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="129"/>
-      <c r="U8" s="126" t="s">
+      <c r="T8" s="136"/>
+      <c r="U8" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="V8" s="129"/>
-      <c r="W8" s="126" t="s">
+      <c r="V8" s="136"/>
+      <c r="W8" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="130" t="s">
+      <c r="X8" s="136"/>
+      <c r="Y8" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133" t="s">
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="127" t="s">
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="138"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="135"/>
-      <c r="AO8" s="136"/>
-      <c r="AP8" s="127"/>
-      <c r="AQ8" s="127"/>
-      <c r="AR8" s="127"/>
-      <c r="AS8" s="127"/>
-      <c r="AT8" s="127"/>
-      <c r="AU8" s="127"/>
-      <c r="AV8" s="127"/>
-      <c r="AW8" s="127"/>
-      <c r="AX8" s="127"/>
-      <c r="AY8" s="127"/>
-      <c r="AZ8" s="127"/>
-      <c r="BA8" s="127"/>
-      <c r="BB8" s="127"/>
-      <c r="BC8" s="127"/>
-      <c r="BD8" s="127"/>
-      <c r="BE8" s="127"/>
-      <c r="BF8" s="127"/>
-      <c r="BG8" s="127"/>
-      <c r="BH8" s="127"/>
-      <c r="BI8" s="127"/>
-      <c r="BJ8" s="127"/>
-      <c r="BK8" s="127"/>
-      <c r="BL8" s="135"/>
-      <c r="BM8" s="137"/>
-      <c r="BN8" s="138"/>
+      <c r="AI8" s="142"/>
+      <c r="AJ8" s="142"/>
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="142"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="151"/>
+      <c r="AP8" s="142"/>
+      <c r="AQ8" s="142"/>
+      <c r="AR8" s="142"/>
+      <c r="AS8" s="142"/>
+      <c r="AT8" s="142"/>
+      <c r="AU8" s="142"/>
+      <c r="AV8" s="142"/>
+      <c r="AW8" s="142"/>
+      <c r="AX8" s="142"/>
+      <c r="AY8" s="142"/>
+      <c r="AZ8" s="142"/>
+      <c r="BA8" s="142"/>
+      <c r="BB8" s="142"/>
+      <c r="BC8" s="142"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="142"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142"/>
+      <c r="BH8" s="142"/>
+      <c r="BI8" s="142"/>
+      <c r="BJ8" s="142"/>
+      <c r="BK8" s="142"/>
+      <c r="BL8" s="143"/>
+      <c r="BM8" s="152"/>
+      <c r="BN8" s="153"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" thickTop="1">
-      <c r="A9" s="139">
+      <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="141" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="141" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="T9" s="143"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="141" t="s">
+      <c r="T9" s="121"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="141" t="s">
+      <c r="X9" s="121"/>
+      <c r="Y9" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="146" t="s">
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="149" t="s">
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="133"/>
+      <c r="AK9" s="133"/>
+      <c r="AL9" s="133"/>
+      <c r="AM9" s="133"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
+      <c r="BI9" s="114"/>
+      <c r="BJ9" s="114"/>
+      <c r="BK9" s="114"/>
+      <c r="BL9" s="114"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="44"/>
+    </row>
+    <row r="10" spans="1:66" ht="12" customHeight="1">
+      <c r="A10" s="42">
+        <v>2</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="123"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="153"/>
-      <c r="AQ9" s="153"/>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="153"/>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="153"/>
-      <c r="AV9" s="153"/>
-      <c r="AW9" s="153"/>
-      <c r="AX9" s="153"/>
-      <c r="AY9" s="153"/>
-      <c r="AZ9" s="153"/>
-      <c r="BA9" s="153"/>
-      <c r="BB9" s="153"/>
-      <c r="BC9" s="153"/>
-      <c r="BD9" s="153"/>
-      <c r="BE9" s="153"/>
-      <c r="BF9" s="153"/>
-      <c r="BG9" s="153"/>
-      <c r="BH9" s="153"/>
-      <c r="BI9" s="153"/>
-      <c r="BJ9" s="153"/>
-      <c r="BK9" s="153"/>
-      <c r="BL9" s="153"/>
-      <c r="BM9" s="154"/>
-      <c r="BN9" s="155"/>
-    </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="139">
-        <v>2</v>
-      </c>
-      <c r="B10" s="156" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="141" t="s">
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="114"/>
+      <c r="BJ10" s="114"/>
+      <c r="BK10" s="114"/>
+      <c r="BL10" s="114"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="44"/>
+    </row>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="42">
+        <v>3</v>
+      </c>
+      <c r="B11" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="123"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114"/>
+      <c r="BM11" s="43"/>
+      <c r="BN11" s="44"/>
+    </row>
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="42">
+        <v>4</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="123"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="43"/>
+      <c r="BN12" s="44"/>
+    </row>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="42">
+        <v>5</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="123"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="44"/>
+    </row>
+    <row r="14" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A14" s="42">
+        <v>6</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="123"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="44"/>
+    </row>
+    <row r="15" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A15" s="42">
+        <v>7</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="123"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="44"/>
+    </row>
+    <row r="16" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A16" s="42">
+        <v>8</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="123"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
+      <c r="BJ16" s="114"/>
+      <c r="BK16" s="114"/>
+      <c r="BL16" s="114"/>
+      <c r="BM16" s="43"/>
+      <c r="BN16" s="44"/>
+    </row>
+    <row r="17" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A17" s="42">
+        <v>9</v>
+      </c>
+      <c r="B17" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="123"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="124"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="114"/>
+      <c r="BK17" s="114"/>
+      <c r="BL17" s="114"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="44"/>
+    </row>
+    <row r="18" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A18" s="49">
+        <v>10</v>
+      </c>
+      <c r="B18" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="159"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="141" t="s">
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="123"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="141" t="s">
+      <c r="X18" s="121"/>
+      <c r="Y18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI10" s="142"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="142"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="153"/>
-      <c r="AQ10" s="153"/>
-      <c r="AR10" s="153"/>
-      <c r="AS10" s="153"/>
-      <c r="AT10" s="153"/>
-      <c r="AU10" s="153"/>
-      <c r="AV10" s="153"/>
-      <c r="AW10" s="153"/>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="153"/>
-      <c r="BB10" s="153"/>
-      <c r="BC10" s="153"/>
-      <c r="BD10" s="153"/>
-      <c r="BE10" s="153"/>
-      <c r="BF10" s="153"/>
-      <c r="BG10" s="153"/>
-      <c r="BH10" s="153"/>
-      <c r="BI10" s="153"/>
-      <c r="BJ10" s="153"/>
-      <c r="BK10" s="153"/>
-      <c r="BL10" s="153"/>
-      <c r="BM10" s="154"/>
-      <c r="BN10" s="155"/>
-    </row>
-    <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="139">
-        <v>3</v>
-      </c>
-      <c r="B11" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="159"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="141" t="s">
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="114"/>
+      <c r="BL18" s="114"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="51"/>
+    </row>
+    <row r="19" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A19" s="49">
+        <v>10</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="123"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="X11" s="143"/>
-      <c r="Y11" s="141" t="s">
+      <c r="X19" s="121"/>
+      <c r="Y19" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="143"/>
-      <c r="AC11" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI11" s="142"/>
-      <c r="AJ11" s="142"/>
-      <c r="AK11" s="142"/>
-      <c r="AL11" s="142"/>
-      <c r="AM11" s="142"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="153"/>
-      <c r="AQ11" s="153"/>
-      <c r="AR11" s="153"/>
-      <c r="AS11" s="153"/>
-      <c r="AT11" s="153"/>
-      <c r="AU11" s="153"/>
-      <c r="AV11" s="153"/>
-      <c r="AW11" s="153"/>
-      <c r="AX11" s="153"/>
-      <c r="AY11" s="153"/>
-      <c r="AZ11" s="153"/>
-      <c r="BA11" s="153"/>
-      <c r="BB11" s="153"/>
-      <c r="BC11" s="153"/>
-      <c r="BD11" s="153"/>
-      <c r="BE11" s="153"/>
-      <c r="BF11" s="153"/>
-      <c r="BG11" s="153"/>
-      <c r="BH11" s="153"/>
-      <c r="BI11" s="153"/>
-      <c r="BJ11" s="153"/>
-      <c r="BK11" s="153"/>
-      <c r="BL11" s="153"/>
-      <c r="BM11" s="154"/>
-      <c r="BN11" s="155"/>
-    </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="139">
-        <v>4</v>
-      </c>
-      <c r="B12" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="159"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="147"/>
-      <c r="AF12" s="147"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI12" s="142"/>
-      <c r="AJ12" s="142"/>
-      <c r="AK12" s="142"/>
-      <c r="AL12" s="142"/>
-      <c r="AM12" s="142"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="153"/>
-      <c r="AQ12" s="153"/>
-      <c r="AR12" s="153"/>
-      <c r="AS12" s="153"/>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="153"/>
-      <c r="AZ12" s="153"/>
-      <c r="BA12" s="153"/>
-      <c r="BB12" s="153"/>
-      <c r="BC12" s="153"/>
-      <c r="BD12" s="153"/>
-      <c r="BE12" s="153"/>
-      <c r="BF12" s="153"/>
-      <c r="BG12" s="153"/>
-      <c r="BH12" s="153"/>
-      <c r="BI12" s="153"/>
-      <c r="BJ12" s="153"/>
-      <c r="BK12" s="153"/>
-      <c r="BL12" s="153"/>
-      <c r="BM12" s="154"/>
-      <c r="BN12" s="155"/>
-    </row>
-    <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="139">
-        <v>5</v>
-      </c>
-      <c r="B13" s="156" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="159"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="143"/>
-      <c r="AC13" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI13" s="142"/>
-      <c r="AJ13" s="142"/>
-      <c r="AK13" s="142"/>
-      <c r="AL13" s="142"/>
-      <c r="AM13" s="142"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="171" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP13" s="153"/>
-      <c r="AQ13" s="153"/>
-      <c r="AR13" s="153"/>
-      <c r="AS13" s="153"/>
-      <c r="AT13" s="153"/>
-      <c r="AU13" s="153"/>
-      <c r="AV13" s="153"/>
-      <c r="AW13" s="153"/>
-      <c r="AX13" s="153"/>
-      <c r="AY13" s="153"/>
-      <c r="AZ13" s="153"/>
-      <c r="BA13" s="153"/>
-      <c r="BB13" s="153"/>
-      <c r="BC13" s="153"/>
-      <c r="BD13" s="153"/>
-      <c r="BE13" s="153"/>
-      <c r="BF13" s="153"/>
-      <c r="BG13" s="153"/>
-      <c r="BH13" s="153"/>
-      <c r="BI13" s="153"/>
-      <c r="BJ13" s="153"/>
-      <c r="BK13" s="153"/>
-      <c r="BL13" s="153"/>
-      <c r="BM13" s="154"/>
-      <c r="BN13" s="155"/>
-    </row>
-    <row r="14" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A14" s="139">
-        <v>6</v>
-      </c>
-      <c r="B14" s="156" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="159"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="143"/>
-      <c r="AC14" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="147"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="148"/>
-      <c r="AH14" s="141" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="142"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="153"/>
-      <c r="AQ14" s="153"/>
-      <c r="AR14" s="153"/>
-      <c r="AS14" s="153"/>
-      <c r="AT14" s="153"/>
-      <c r="AU14" s="153"/>
-      <c r="AV14" s="153"/>
-      <c r="AW14" s="153"/>
-      <c r="AX14" s="153"/>
-      <c r="AY14" s="153"/>
-      <c r="AZ14" s="153"/>
-      <c r="BA14" s="153"/>
-      <c r="BB14" s="153"/>
-      <c r="BC14" s="153"/>
-      <c r="BD14" s="153"/>
-      <c r="BE14" s="153"/>
-      <c r="BF14" s="153"/>
-      <c r="BG14" s="153"/>
-      <c r="BH14" s="153"/>
-      <c r="BI14" s="153"/>
-      <c r="BJ14" s="153"/>
-      <c r="BK14" s="153"/>
-      <c r="BL14" s="153"/>
-      <c r="BM14" s="154"/>
-      <c r="BN14" s="155"/>
-    </row>
-    <row r="15" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A15" s="139">
-        <v>7</v>
-      </c>
-      <c r="B15" s="156" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" s="159"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="147"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="142"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="172" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP15" s="153"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="153"/>
-      <c r="AU15" s="153"/>
-      <c r="AV15" s="153"/>
-      <c r="AW15" s="153"/>
-      <c r="AX15" s="153"/>
-      <c r="AY15" s="153"/>
-      <c r="AZ15" s="153"/>
-      <c r="BA15" s="153"/>
-      <c r="BB15" s="153"/>
-      <c r="BC15" s="153"/>
-      <c r="BD15" s="153"/>
-      <c r="BE15" s="153"/>
-      <c r="BF15" s="153"/>
-      <c r="BG15" s="153"/>
-      <c r="BH15" s="153"/>
-      <c r="BI15" s="153"/>
-      <c r="BJ15" s="153"/>
-      <c r="BK15" s="153"/>
-      <c r="BL15" s="153"/>
-      <c r="BM15" s="154"/>
-      <c r="BN15" s="155"/>
-    </row>
-    <row r="16" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A16" s="139">
-        <v>8</v>
-      </c>
-      <c r="B16" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" s="159"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X16" s="143"/>
-      <c r="Y16" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="147"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI16" s="142"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="152"/>
-      <c r="AP16" s="153"/>
-      <c r="AQ16" s="153"/>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="153"/>
-      <c r="AT16" s="153"/>
-      <c r="AU16" s="153"/>
-      <c r="AV16" s="153"/>
-      <c r="AW16" s="153"/>
-      <c r="AX16" s="153"/>
-      <c r="AY16" s="153"/>
-      <c r="AZ16" s="153"/>
-      <c r="BA16" s="153"/>
-      <c r="BB16" s="153"/>
-      <c r="BC16" s="153"/>
-      <c r="BD16" s="153"/>
-      <c r="BE16" s="153"/>
-      <c r="BF16" s="153"/>
-      <c r="BG16" s="153"/>
-      <c r="BH16" s="153"/>
-      <c r="BI16" s="153"/>
-      <c r="BJ16" s="153"/>
-      <c r="BK16" s="153"/>
-      <c r="BL16" s="153"/>
-      <c r="BM16" s="154"/>
-      <c r="BN16" s="155"/>
-    </row>
-    <row r="17" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A17" s="139">
-        <v>9</v>
-      </c>
-      <c r="B17" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="141" t="s">
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="159"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="147"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="148"/>
-      <c r="AH17" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI17" s="142"/>
-      <c r="AJ17" s="142"/>
-      <c r="AK17" s="142"/>
-      <c r="AL17" s="142"/>
-      <c r="AM17" s="142"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="152"/>
-      <c r="AP17" s="153"/>
-      <c r="AQ17" s="153"/>
-      <c r="AR17" s="153"/>
-      <c r="AS17" s="153"/>
-      <c r="AT17" s="153"/>
-      <c r="AU17" s="153"/>
-      <c r="AV17" s="153"/>
-      <c r="AW17" s="153"/>
-      <c r="AX17" s="153"/>
-      <c r="AY17" s="153"/>
-      <c r="AZ17" s="153"/>
-      <c r="BA17" s="153"/>
-      <c r="BB17" s="153"/>
-      <c r="BC17" s="153"/>
-      <c r="BD17" s="153"/>
-      <c r="BE17" s="153"/>
-      <c r="BF17" s="153"/>
-      <c r="BG17" s="153"/>
-      <c r="BH17" s="153"/>
-      <c r="BI17" s="153"/>
-      <c r="BJ17" s="153"/>
-      <c r="BK17" s="153"/>
-      <c r="BL17" s="153"/>
-      <c r="BM17" s="154"/>
-      <c r="BN17" s="155"/>
-    </row>
-    <row r="18" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A18" s="165">
-        <v>10</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="159"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z18" s="142"/>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="147"/>
-      <c r="AF18" s="147"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="141" t="s">
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="AI18" s="142"/>
-      <c r="AJ18" s="142"/>
-      <c r="AK18" s="142"/>
-      <c r="AL18" s="142"/>
-      <c r="AM18" s="142"/>
-      <c r="AN18" s="160"/>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="153"/>
-      <c r="AQ18" s="153"/>
-      <c r="AR18" s="153"/>
-      <c r="AS18" s="153"/>
-      <c r="AT18" s="153"/>
-      <c r="AU18" s="153"/>
-      <c r="AV18" s="153"/>
-      <c r="AW18" s="153"/>
-      <c r="AX18" s="153"/>
-      <c r="AY18" s="153"/>
-      <c r="AZ18" s="153"/>
-      <c r="BA18" s="153"/>
-      <c r="BB18" s="153"/>
-      <c r="BC18" s="153"/>
-      <c r="BD18" s="153"/>
-      <c r="BE18" s="153"/>
-      <c r="BF18" s="153"/>
-      <c r="BG18" s="153"/>
-      <c r="BH18" s="153"/>
-      <c r="BI18" s="153"/>
-      <c r="BJ18" s="153"/>
-      <c r="BK18" s="153"/>
-      <c r="BL18" s="153"/>
-      <c r="BM18" s="167"/>
-      <c r="BN18" s="168"/>
-    </row>
-    <row r="19" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A19" s="165">
-        <v>10</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="T19" s="159"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="X19" s="143"/>
-      <c r="Y19" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="143"/>
-      <c r="AC19" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="147"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI19" s="142"/>
-      <c r="AJ19" s="142"/>
-      <c r="AK19" s="142"/>
-      <c r="AL19" s="142"/>
-      <c r="AM19" s="142"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="152"/>
-      <c r="AP19" s="153"/>
-      <c r="AQ19" s="153"/>
-      <c r="AR19" s="153"/>
-      <c r="AS19" s="153"/>
-      <c r="AT19" s="153"/>
-      <c r="AU19" s="153"/>
-      <c r="AV19" s="153"/>
-      <c r="AW19" s="153"/>
-      <c r="AX19" s="153"/>
-      <c r="AY19" s="153"/>
-      <c r="AZ19" s="153"/>
-      <c r="BA19" s="153"/>
-      <c r="BB19" s="153"/>
-      <c r="BC19" s="153"/>
-      <c r="BD19" s="153"/>
-      <c r="BE19" s="153"/>
-      <c r="BF19" s="153"/>
-      <c r="BG19" s="153"/>
-      <c r="BH19" s="153"/>
-      <c r="BI19" s="153"/>
-      <c r="BJ19" s="153"/>
-      <c r="BK19" s="153"/>
-      <c r="BL19" s="153"/>
-      <c r="BM19" s="167"/>
-      <c r="BN19" s="168"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
+      <c r="BI19" s="114"/>
+      <c r="BJ19" s="114"/>
+      <c r="BK19" s="114"/>
+      <c r="BL19" s="114"/>
+      <c r="BM19" s="50"/>
+      <c r="BN19" s="51"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="169"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" customHeight="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:66" ht="14.25" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:66" ht="15.75" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="169"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" customHeight="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="169"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A28" s="169"/>
-      <c r="B28" s="169"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A29" s="169"/>
-      <c r="B29" s="169"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A30" s="169"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A31" s="170"/>
-      <c r="B31" s="170"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
     </row>
     <row r="32" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A32" s="170"/>
-      <c r="B32" s="170"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A33" s="170"/>
-      <c r="B33" s="170"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A34" s="170"/>
-      <c r="B34" s="170"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A35" s="170"/>
-      <c r="B35" s="170"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A36" s="170"/>
-      <c r="B36" s="170"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
     </row>
     <row r="37" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A37" s="170"/>
-      <c r="B37" s="170"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="AC7:AN7"/>
+    <mergeCell ref="AO7:BL8"/>
+    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AO16:BL16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="AO17:BL17"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
     <mergeCell ref="AO19:BL19"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -8796,114 +8904,6 @@
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO16:BL16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="AC7:AN7"/>
-    <mergeCell ref="AO7:BL8"/>
-    <mergeCell ref="BM7:BN8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
